--- a/3D/总装测试/物料表.xlsx
+++ b/3D/总装测试/物料表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16080" windowHeight="17775"/>
+    <workbookView windowWidth="17340" windowHeight="17775"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="61">
   <si>
     <t>物料名称</t>
   </si>
@@ -55,10 +55,16 @@
     <t>M5套装(L10)</t>
   </si>
   <si>
-    <t>下方丝杆支架</t>
-  </si>
-  <si>
-    <t>X轴电机支架</t>
+    <t>丝杆支架</t>
+  </si>
+  <si>
+    <t>XY轴电机支架</t>
+  </si>
+  <si>
+    <t>防撞台</t>
+  </si>
+  <si>
+    <t>光轴连接器</t>
   </si>
   <si>
     <t>平垫圈M3</t>
@@ -101,6 +107,111 @@
   </si>
   <si>
     <t>EDLW-S1-M3-L18</t>
+  </si>
+  <si>
+    <t>十字槽沉头螺钉M3-L6</t>
+  </si>
+  <si>
+    <t>EDLW-S1-M3-L6</t>
+  </si>
+  <si>
+    <t>滑台螺丝</t>
+  </si>
+  <si>
+    <t>十字槽沉头螺钉M3-L8</t>
+  </si>
+  <si>
+    <t>EDLW-S1-M3-L8</t>
+  </si>
+  <si>
+    <t>滑台连型材螺丝</t>
+  </si>
+  <si>
+    <t>T型螺母M3</t>
+  </si>
+  <si>
+    <t>TPAA-N-6-M3</t>
+  </si>
+  <si>
+    <t>滑台连型材螺母</t>
+  </si>
+  <si>
+    <t>内六角圆柱头螺钉M3-L16</t>
+  </si>
+  <si>
+    <t>EDLA-S1-M3-L16</t>
+  </si>
+  <si>
+    <t>垫块螺丝</t>
+  </si>
+  <si>
+    <t>内六角圆柱头螺钉M5-L8</t>
+  </si>
+  <si>
+    <t>EDLA-S1-M5-L8</t>
+  </si>
+  <si>
+    <t>侧面螺丝</t>
+  </si>
+  <si>
+    <t>内六角圆柱头螺钉M3-L10</t>
+  </si>
+  <si>
+    <t>EDLA-S1-M3-L10</t>
+  </si>
+  <si>
+    <t>内六角圆柱头螺钉M3-L12</t>
+  </si>
+  <si>
+    <t>EDLW-S1-M3-L12</t>
+  </si>
+  <si>
+    <t>丝杆螺母螺钉</t>
+  </si>
+  <si>
+    <t>内六角圆柱头螺钉M5-L12</t>
+  </si>
+  <si>
+    <t>EDLA-S1-M5-L12</t>
+  </si>
+  <si>
+    <t>侧面支撑</t>
+  </si>
+  <si>
+    <t>丝杆组合套+T型滑台连型材</t>
+  </si>
+  <si>
+    <t>平垫圈M5</t>
+  </si>
+  <si>
+    <t>T型螺母M5</t>
+  </si>
+  <si>
+    <t>十字槽沉头螺钉M3L-20</t>
+  </si>
+  <si>
+    <t>EDLW-S1-M3-L20</t>
+  </si>
+  <si>
+    <t>内六角圆柱头螺钉M3-L8</t>
+  </si>
+  <si>
+    <t>EDLA-S1-M3-L8</t>
+  </si>
+  <si>
+    <t>Z轴滑台</t>
+  </si>
+  <si>
+    <t>十字槽盘头螺钉M3-L45</t>
+  </si>
+  <si>
+    <t>内六角圆柱头螺钉M3-L6</t>
+  </si>
+  <si>
+    <t>EDLA-S1-M3-L6</t>
+  </si>
+  <si>
+    <t>Y轴滑台</t>
   </si>
 </sst>
 </file>
@@ -113,10 +224,17 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -586,138 +704,144 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1031,17 +1155,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="21.9" customWidth="1"/>
     <col min="2" max="2" width="15.425" customWidth="1"/>
-    <col min="6" max="6" width="18.1" customWidth="1"/>
+    <col min="6" max="6" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1084,7 +1208,7 @@
         <v>7</v>
       </c>
       <c r="D3">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
@@ -1092,10 +1216,26 @@
     </row>
     <row r="4" spans="4:6">
       <c r="D4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="4:6">
+      <c r="D5">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="4:6">
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="4:4">
@@ -1105,19 +1245,19 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D11">
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="4:6">
@@ -1125,15 +1265,15 @@
         <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D13">
         <v>8</v>
@@ -1141,10 +1281,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D14">
         <v>4</v>
@@ -1152,27 +1292,224 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D16">
         <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D17">
         <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20">
+        <v>6</v>
+      </c>
+      <c r="F20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21">
+        <v>20</v>
+      </c>
+      <c r="F21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22">
+        <v>16</v>
+      </c>
+      <c r="F22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23">
+        <v>12</v>
+      </c>
+      <c r="F23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="F24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25">
+        <v>8</v>
+      </c>
+      <c r="F25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26">
+        <v>16</v>
+      </c>
+      <c r="F26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="4:6">
+      <c r="D27">
+        <v>8</v>
+      </c>
+      <c r="F27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28">
+        <v>16</v>
+      </c>
+      <c r="F28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="4:6">
+      <c r="D29">
+        <v>8</v>
+      </c>
+      <c r="F29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30">
+        <v>16</v>
+      </c>
+      <c r="F30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32">
+        <v>8</v>
+      </c>
+      <c r="F32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33">
+        <v>8</v>
+      </c>
+      <c r="F33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="F34" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/3D/总装测试/物料表.xlsx
+++ b/3D/总装测试/物料表.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="76">
   <si>
     <t>物料名称</t>
   </si>
@@ -55,6 +55,9 @@
     <t>M5套装(L10)</t>
   </si>
   <si>
+    <t>72个</t>
+  </si>
+  <si>
     <t>丝杆支架</t>
   </si>
   <si>
@@ -67,6 +70,18 @@
     <t>光轴连接器</t>
   </si>
   <si>
+    <t>张紧</t>
+  </si>
+  <si>
+    <t>线轨孔套装</t>
+  </si>
+  <si>
+    <t>内六角圆柱头螺钉M3-L8</t>
+  </si>
+  <si>
+    <t>T型螺母M3</t>
+  </si>
+  <si>
     <t>平垫圈M3</t>
   </si>
   <si>
@@ -127,9 +142,6 @@
     <t>滑台连型材螺丝</t>
   </si>
   <si>
-    <t>T型螺母M3</t>
-  </si>
-  <si>
     <t>TPAA-N-6-M3</t>
   </si>
   <si>
@@ -193,7 +205,7 @@
     <t>EDLW-S1-M3-L20</t>
   </si>
   <si>
-    <t>内六角圆柱头螺钉M3-L8</t>
+    <t>主板</t>
   </si>
   <si>
     <t>EDLA-S1-M3-L8</t>
@@ -212,6 +224,39 @@
   </si>
   <si>
     <t>Y轴滑台</t>
+  </si>
+  <si>
+    <t>2020L800</t>
+  </si>
+  <si>
+    <t>2020L566</t>
+  </si>
+  <si>
+    <t>2020L521</t>
+  </si>
+  <si>
+    <t>线轨L545</t>
+  </si>
+  <si>
+    <t>线轨L245</t>
+  </si>
+  <si>
+    <t>线轨L361</t>
+  </si>
+  <si>
+    <t>2020L630</t>
+  </si>
+  <si>
+    <t>2020L511</t>
+  </si>
+  <si>
+    <t>皮带</t>
+  </si>
+  <si>
+    <t>2020L型加固</t>
+  </si>
+  <si>
+    <t>2040L60</t>
   </si>
 </sst>
 </file>
@@ -384,7 +429,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -393,6 +438,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -502,12 +559,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -710,7 +761,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -734,16 +785,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -752,93 +803,99 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1155,10 +1212,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1188,7 +1245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1198,20 +1255,19 @@
       <c r="D2">
         <v>16</v>
       </c>
-      <c r="E2">
-        <f>C2*D2</f>
-        <v>18.24</v>
-      </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
       </c>
       <c r="D3">
         <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="4:6">
@@ -1219,7 +1275,7 @@
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="4:6">
@@ -1227,7 +1283,7 @@
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="4:6">
@@ -1235,41 +1291,45 @@
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="4:4">
-      <c r="D10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="4:6">
+      <c r="D7">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="4:4">
+      <c r="D12">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11">
-        <v>8</v>
-      </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="4:6">
-      <c r="D12">
-        <v>12</v>
-      </c>
-      <c r="F12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B13" t="s">
@@ -1278,238 +1338,394 @@
       <c r="D13">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
+      <c r="F13" t="s">
         <v>19</v>
       </c>
-      <c r="B14" t="s">
+      <c r="G13" t="s">
         <v>20</v>
       </c>
+    </row>
+    <row r="14" spans="4:6">
       <c r="D14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>21</v>
       </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D16">
-        <v>12</v>
-      </c>
-      <c r="F16" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
       </c>
       <c r="D17">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B19" t="s">
         <v>27</v>
       </c>
       <c r="D19">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B20" t="s">
         <v>30</v>
       </c>
       <c r="D20">
-        <v>6</v>
-      </c>
-      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
+      <c r="B22" t="s">
         <v>32</v>
       </c>
-      <c r="B21" t="s">
+      <c r="D22">
+        <v>8</v>
+      </c>
+      <c r="F22" t="s">
         <v>33</v>
-      </c>
-      <c r="D21">
-        <v>20</v>
-      </c>
-      <c r="F21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22">
-        <v>16</v>
-      </c>
-      <c r="F22" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23">
+        <v>6</v>
+      </c>
+      <c r="F23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24">
+        <v>20</v>
+      </c>
+      <c r="F24" t="s">
         <v>38</v>
       </c>
-      <c r="B23" t="s">
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1"/>
+      <c r="D25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D23">
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27">
+        <v>16</v>
+      </c>
+      <c r="F27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28">
         <v>12</v>
       </c>
-      <c r="F23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24">
+      <c r="F28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29">
         <v>4</v>
       </c>
-      <c r="F24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="F29" t="s">
         <v>44</v>
       </c>
-      <c r="D25">
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30">
         <v>8</v>
       </c>
-      <c r="F25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26">
+      <c r="F30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31">
         <v>16</v>
       </c>
-      <c r="F26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="4:6">
-      <c r="D27">
-        <v>8</v>
-      </c>
-      <c r="F27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
-        <v>50</v>
-      </c>
-      <c r="D28">
-        <v>16</v>
-      </c>
-      <c r="F28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="4:6">
-      <c r="D29">
-        <v>8</v>
-      </c>
-      <c r="F29" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" t="s">
-        <v>51</v>
-      </c>
-      <c r="D30">
-        <v>16</v>
-      </c>
-      <c r="F30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
+      <c r="F31" t="s">
         <v>52</v>
       </c>
-      <c r="B31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" t="s">
-        <v>54</v>
-      </c>
-      <c r="B32" t="s">
-        <v>55</v>
-      </c>
+    </row>
+    <row r="32" spans="4:6">
       <c r="D32">
         <v>8</v>
       </c>
       <c r="F32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33">
+        <v>16</v>
+      </c>
+      <c r="F33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6">
+      <c r="D34">
+        <v>8</v>
+      </c>
+      <c r="F34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4">
+      <c r="D35" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37">
+        <v>16</v>
+      </c>
+      <c r="F37" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4">
+      <c r="D38" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="2" t="s">
+      <c r="B40" t="s">
         <v>57</v>
       </c>
-      <c r="D33">
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="F40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41">
         <v>8</v>
       </c>
-      <c r="F33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" t="s">
-        <v>58</v>
-      </c>
-      <c r="B34" t="s">
-        <v>59</v>
-      </c>
-      <c r="D34">
+      <c r="F41" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="4"/>
+      <c r="D42">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="4"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44">
+        <v>8</v>
+      </c>
+      <c r="F44" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45">
         <v>4</v>
       </c>
-      <c r="F34" t="s">
-        <v>60</v>
+      <c r="F45" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50">
+        <v>22</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B51">
+        <v>10</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52">
+        <v>15</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/3D/总装测试/物料表.xlsx
+++ b/3D/总装测试/物料表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17340" windowHeight="17775"/>
+    <workbookView windowWidth="28800" windowHeight="12525"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1158,7 +1158,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
